--- a/roadsign/roadsign.xlsx
+++ b/roadsign/roadsign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\roadsign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9DCECE-437D-447B-9564-DDE01D6CC9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D04CF1-2E42-4766-82E3-A201A2B9D29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
   <si>
     <t>addon</t>
   </si>
@@ -119,18 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OBK_rail_signal_3G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OBK_rail_signal_4G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OBK_rail_choosesignal_4G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3灯式信号機</t>
     <rPh sb="1" eb="2">
       <t>トウ</t>
@@ -398,10 +386,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OBK_rail_choosesignal_mainright_3G</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>has_selective_choose</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -418,11 +402,159 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>atc_cabsignal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>atc_cabsignal_choose</t>
+    <t>TCB_3_aspect_light_signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCB_4_aspect_light_signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCB_3_aspect_home_signal_mainright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCB_4_aspect_home_signal_mainright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CB_atc_signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CB_atc_home_signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB_semaphore_signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB_semaphore_distant_signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB_semaphore_home_signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB_semaphore_3_aspect_passing_signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATC閉塞境界標識</t>
+    <rPh sb="3" eb="5">
+      <t>ヘイソク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATC場内標識</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕木式信号機</t>
+    <rPh sb="0" eb="3">
+      <t>ウデ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シンゴウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕木式通過信号機付き信号機</t>
+    <rPh sb="0" eb="3">
+      <t>ウデギシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シンゴウキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>シンゴウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕木式遠方信号機</t>
+    <rPh sb="0" eb="3">
+      <t>ウデギシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンポウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シンゴウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕木式場内信号機</t>
+    <rPh sb="0" eb="3">
+      <t>ウデギシキ</t>
+    </rPh>
+    <rPh sb="3" eb="8">
+      <t>ジョウナイシンゴウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATC track circuit boundary sign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATC home boundary sign</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Semaphore signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Semaphore signal with passing signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Semaphore distant signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Semaphore home signal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ooboke/481_modified_by_Physka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信号+遠方信号</t>
+    <rPh sb="0" eb="2">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エンポウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -772,22 +904,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="37.25" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
     <col min="5" max="5" width="3.5" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -807,43 +942,43 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
       <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
-        <v>55</v>
-      </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -880,22 +1015,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -904,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -936,22 +1071,22 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -960,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -992,22 +1127,22 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1016,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -1034,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
         <v>1895</v>
@@ -1048,22 +1183,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1072,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -1090,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
         <v>1895</v>
@@ -1107,19 +1242,19 @@
         <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1128,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1163,19 +1298,19 @@
         <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1184,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1208,6 +1343,218 @@
         <v>1964</v>
       </c>
       <c r="R9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1895</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1895</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1895</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1895</v>
+      </c>
+      <c r="R13">
         <v>1</v>
       </c>
     </row>
@@ -1221,13 +1568,13 @@
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$11</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J9</xm:sqref>
+          <xm:sqref>J4:J17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1A573077-6971-43A6-9366-58428995594A}">
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G9</xm:sqref>
+          <xm:sqref>G5:G13 G4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1240,88 +1587,91 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/roadsign/roadsign.xlsx
+++ b/roadsign/roadsign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\roadsign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D04CF1-2E42-4766-82E3-A201A2B9D29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5DF13-90FC-467B-A4A4-5BAA9A0935A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t>addon</t>
   </si>
@@ -555,6 +555,25 @@
     <rPh sb="5" eb="7">
       <t>シンゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>img_file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rail_signal01</t>
+  </si>
+  <si>
+    <t>rail_signal02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rail_semaphore_signal01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atc_signal</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -904,13 +923,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -925,7 +944,7 @@
     <col min="14" max="14" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,8 +999,11 @@
       <c r="R1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -992,7 +1014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1032,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1065,8 +1087,11 @@
       <c r="R4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1121,8 +1146,11 @@
       <c r="R5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1177,8 +1205,11 @@
       <c r="R6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1233,8 +1264,11 @@
       <c r="R7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1289,8 +1323,11 @@
       <c r="R8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1398,8 +1438,11 @@
       <c r="R10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1451,8 +1494,11 @@
       <c r="R11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1504,8 +1550,11 @@
       <c r="R12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1556,6 +1605,9 @@
       </c>
       <c r="R13">
         <v>1</v>
+      </c>
+      <c r="S13" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1626,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$52</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G13 G4</xm:sqref>
+          <xm:sqref>G4:G13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/roadsign/roadsign.xlsx
+++ b/roadsign/roadsign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\simutrans-pak128.japan-ex-addons\roadsign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B5DF13-90FC-467B-A4A4-5BAA9A0935A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671F17A6-D814-4909-857A-263A60E9AFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="29010" windowHeight="31785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="parameters" sheetId="1" r:id="rId1"/>
@@ -926,10 +926,10 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1411,6 +1411,9 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>32</v>
       </c>
@@ -1421,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1467,6 +1470,9 @@
       <c r="H11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>32</v>
       </c>
@@ -1477,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1523,6 +1529,9 @@
       <c r="H12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
         <v>32</v>
       </c>
@@ -1533,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1579,6 +1588,9 @@
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
         <v>32</v>
       </c>
@@ -1589,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>0</v>
